--- a/trunk/study/auswertung/auswertung arbeitgeber_teilnehmer 17.xlsx
+++ b/trunk/study/auswertung/auswertung arbeitgeber_teilnehmer 17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15480" windowHeight="8385" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="vermiedene Anreize" sheetId="2" r:id="rId1"/>
@@ -56,12 +56,6 @@
   </si>
   <si>
     <t>Sabbatical</t>
-  </si>
-  <si>
-    <t>negativ</t>
-  </si>
-  <si>
-    <t>positiv</t>
   </si>
   <si>
     <t>Auslandeinsätze</t>
@@ -143,6 +137,12 @@
   </si>
   <si>
     <t>Dienstleistung</t>
+  </si>
+  <si>
+    <t>Ablehnende Haltung</t>
+  </si>
+  <si>
+    <t>Fürsprechende Haltung</t>
   </si>
 </sst>
 </file>
@@ -268,7 +268,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -286,6 +286,16 @@
             <c:v>Verwendung in %</c:v>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -377,26 +387,36 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="77260672"/>
-        <c:axId val="77262208"/>
+        <c:axId val="62911616"/>
+        <c:axId val="62913152"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="77260672"/>
+        <c:axId val="62911616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77262208"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62913152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77262208"/>
+        <c:axId val="62913152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -404,7 +424,17 @@
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77260672"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62911616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -412,12 +442,22 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -425,7 +465,7 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -440,6 +480,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -497,13 +547,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -511,7 +570,7 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -534,6 +593,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -635,6 +704,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -725,25 +804,35 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="38875904"/>
-        <c:axId val="38893056"/>
+        <c:axId val="64125568"/>
+        <c:axId val="64147840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="38875904"/>
+        <c:axId val="64125568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38893056"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64147840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38893056"/>
+        <c:axId val="64147840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -751,7 +840,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38875904"/>
+        <c:crossAx val="64125568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -759,12 +848,22 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -772,7 +871,7 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -781,7 +880,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -803,6 +902,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Länder!$A$2:$A$12</c:f>
@@ -895,12 +1007,22 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -908,7 +1030,7 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -917,7 +1039,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -939,6 +1061,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Länder!$A$2:$A$12</c:f>
@@ -1031,12 +1166,22 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1044,7 +1189,7 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1067,6 +1212,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1168,6 +1323,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1269,6 +1434,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1359,25 +1534,35 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="67792256"/>
-        <c:axId val="67798144"/>
+        <c:axId val="64256640"/>
+        <c:axId val="64266624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67792256"/>
+        <c:axId val="64256640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67798144"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64266624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67798144"/>
+        <c:axId val="64266624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,7 +1570,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67792256"/>
+        <c:crossAx val="64256640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1393,12 +1578,22 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1406,7 +1601,7 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1415,7 +1610,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -1437,6 +1632,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Wirtschaftsektor!$A$2:$A$12</c:f>
@@ -1529,12 +1737,22 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1542,7 +1760,7 @@
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1551,7 +1769,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -1573,6 +1791,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Wirtschaftsektor!$A$2:$A$12</c:f>
@@ -1665,12 +1896,22 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1678,7 +1919,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -1694,12 +1935,22 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>positiv</c:v>
+                  <c:v>Fürsprechende Haltung</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1795,12 +2046,22 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>negativ</c:v>
+                  <c:v>Ablehnende Haltung</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1891,25 +2152,35 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="75776000"/>
-        <c:axId val="76378112"/>
+        <c:axId val="63274368"/>
+        <c:axId val="63276160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75776000"/>
+        <c:axId val="63274368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76378112"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63276160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76378112"/>
+        <c:axId val="63276160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1917,7 +2188,17 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75776000"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63274368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1925,12 +2206,22 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1938,7 +2229,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1961,6 +2252,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2062,6 +2363,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2163,6 +2474,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2264,6 +2585,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2365,6 +2696,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2455,11 +2796,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="67572096"/>
-        <c:axId val="67573632"/>
+        <c:axId val="63728640"/>
+        <c:axId val="63742720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67572096"/>
+        <c:axId val="63728640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2473,17 +2814,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67573632"/>
+        <c:crossAx val="63742720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67573632"/>
+        <c:axId val="63742720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2492,7 +2833,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67572096"/>
+        <c:crossAx val="63728640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2500,12 +2841,22 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2513,7 +2864,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2522,7 +2873,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -2535,7 +2886,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -2548,6 +2898,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Firmengrösse!$A$2:$A$12</c:f>
@@ -2639,13 +3002,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2653,7 +3025,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2662,7 +3034,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
@@ -2672,7 +3044,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -2685,6 +3056,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Firmengrösse!$A$2:$A$12</c:f>
@@ -2776,13 +3160,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2790,7 +3183,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2799,7 +3192,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
@@ -2809,7 +3202,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -2822,6 +3214,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Firmengrösse!$A$2:$A$12</c:f>
@@ -2913,13 +3318,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2927,7 +3341,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2936,7 +3350,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
@@ -2946,7 +3360,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -2958,10 +3371,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.8279053875661989E-2"/>
+          <c:x val="7.8279053875661975E-2"/>
           <c:y val="0.43253818463531757"/>
           <c:w val="0.83160757272204877"/>
-          <c:h val="0.48032377632185291"/>
+          <c:h val="0.48032377632185302"/>
         </c:manualLayout>
       </c:layout>
       <c:pie3DChart>
@@ -2969,6 +3382,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Firmengrösse!$A$2:$A$12</c:f>
@@ -3060,13 +3486,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3074,7 +3509,7 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3083,7 +3518,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
@@ -3093,7 +3528,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -3106,6 +3540,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Firmengrösse!$A$2:$A$12</c:f>
@@ -3197,13 +3644,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3211,7 +3667,7 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -3226,6 +3682,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3271,13 +3737,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4080,25 +4555,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4112,7 +4589,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="4">
-        <f>100/17*B2</f>
+        <f t="shared" ref="E2:E12" si="0">100/17*B2</f>
         <v>35.294117647058826</v>
       </c>
     </row>
@@ -4127,7 +4604,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="4">
-        <f>100/17*B3</f>
+        <f t="shared" si="0"/>
         <v>52.941176470588239</v>
       </c>
     </row>
@@ -4142,7 +4619,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="4">
-        <f>100/17*B4</f>
+        <f t="shared" si="0"/>
         <v>23.529411764705884</v>
       </c>
     </row>
@@ -4157,7 +4634,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="4">
-        <f>100/17*B5</f>
+        <f t="shared" si="0"/>
         <v>41.176470588235297</v>
       </c>
     </row>
@@ -4172,7 +4649,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="4">
-        <f>100/17*B6</f>
+        <f t="shared" si="0"/>
         <v>35.294117647058826</v>
       </c>
     </row>
@@ -4187,7 +4664,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="4">
-        <f>100/17*B7</f>
+        <f t="shared" si="0"/>
         <v>88.235294117647072</v>
       </c>
     </row>
@@ -4202,7 +4679,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="4">
-        <f>100/17*B8</f>
+        <f t="shared" si="0"/>
         <v>23.529411764705884</v>
       </c>
     </row>
@@ -4217,7 +4694,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="4">
-        <f>100/17*B9</f>
+        <f t="shared" si="0"/>
         <v>17.647058823529413</v>
       </c>
     </row>
@@ -4232,7 +4709,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="4">
-        <f>100/17*B10</f>
+        <f t="shared" si="0"/>
         <v>76.470588235294116</v>
       </c>
     </row>
@@ -4247,7 +4724,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="4">
-        <f>100/17*B11</f>
+        <f t="shared" si="0"/>
         <v>47.058823529411768</v>
       </c>
     </row>
@@ -4262,7 +4739,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="4">
-        <f>100/17*B12</f>
+        <f t="shared" si="0"/>
         <v>29.411764705882355</v>
       </c>
     </row>
@@ -4277,7 +4754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -4288,19 +4765,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4345,7 +4822,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4365,7 +4842,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4405,7 +4882,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -4465,7 +4942,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -4529,12 +5006,12 @@
     <row r="15" spans="1:6">
       <c r="B15" s="2"/>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4558,12 +5035,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -4579,7 +5056,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>14</v>
@@ -4606,7 +5083,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -4614,7 +5091,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4622,7 +5099,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -4630,7 +5107,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -4638,7 +5115,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4654,8 +5131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4670,24 +5147,24 @@
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="6">
         <v>2</v>
@@ -4706,7 +5183,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
@@ -4723,7 +5200,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="6">
         <v>6</v>
@@ -4744,7 +5221,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="6">
         <v>6</v>
@@ -4765,7 +5242,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
@@ -4801,10 +5278,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4831,7 +5308,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -4842,7 +5319,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4864,7 +5341,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -4897,7 +5374,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -4952,13 +5429,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
         <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4991,7 +5468,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5005,7 +5482,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5033,7 +5510,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5075,7 +5552,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>0</v>

--- a/trunk/study/auswertung/auswertung arbeitgeber_teilnehmer 17.xlsx
+++ b/trunk/study/auswertung/auswertung arbeitgeber_teilnehmer 17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15480" windowHeight="8385" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="vermiedene Anreize" sheetId="2" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Retention" sheetId="6" r:id="rId5"/>
     <sheet name="Länder" sheetId="7" r:id="rId6"/>
     <sheet name="Wirtschaftsektor" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t>immateriell</t>
   </si>
@@ -56,6 +57,12 @@
   </si>
   <si>
     <t>Sabbatical</t>
+  </si>
+  <si>
+    <t>negativ</t>
+  </si>
+  <si>
+    <t>positiv</t>
   </si>
   <si>
     <t>Auslandeinsätze</t>
@@ -139,10 +146,10 @@
     <t>Dienstleistung</t>
   </si>
   <si>
-    <t>Ablehnende Haltung</t>
+    <t>Alle Bestrebungen und Aktionen die positiv zur Mitarbeiterbindung beitragen</t>
   </si>
   <si>
-    <t>Fürsprechende Haltung</t>
+    <t>Ich kenne den Begriff Retention Management nicht</t>
   </si>
 </sst>
 </file>
@@ -268,7 +275,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -286,16 +293,6 @@
             <c:v>Verwendung in %</c:v>
           </c:tx>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -387,36 +384,26 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="62911616"/>
-        <c:axId val="62913152"/>
+        <c:axId val="66888448"/>
+        <c:axId val="66889984"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="62911616"/>
+        <c:axId val="66888448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="62913152"/>
+        <c:crossAx val="66889984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62913152"/>
+        <c:axId val="66889984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -424,34 +411,13 @@
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="62911616"/>
+        <c:crossAx val="66888448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -465,7 +431,7 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -480,16 +446,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -547,16 +503,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -570,7 +516,98 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Retention!$A$11:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Alle Bestrebungen und Aktionen die positiv zur Mitarbeiterbindung beitragen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ich kenne den Begriff Retention Management nicht</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Retention!$B$11:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:overlap val="-25"/>
+        <c:axId val="39265024"/>
+        <c:axId val="39266560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="39265024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39266560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="39266560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39265024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -593,16 +630,6 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -704,16 +731,6 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -804,35 +821,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="64125568"/>
-        <c:axId val="64147840"/>
+        <c:axId val="67946752"/>
+        <c:axId val="67960832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64125568"/>
+        <c:axId val="67946752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="64147840"/>
+        <c:crossAx val="67960832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64147840"/>
+        <c:axId val="67960832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -840,24 +847,13 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64125568"/>
+        <c:crossAx val="67946752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -869,9 +865,9 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -880,7 +876,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US"/>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -889,7 +885,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -903,16 +898,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1006,17 +991,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1028,9 +1002,9 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1039,7 +1013,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US"/>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -1048,7 +1022,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -1062,16 +1035,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1165,17 +1128,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1187,9 +1139,9 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1212,16 +1164,6 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1323,16 +1265,6 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1434,16 +1366,6 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1534,35 +1456,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="64256640"/>
-        <c:axId val="64266624"/>
+        <c:axId val="68159744"/>
+        <c:axId val="68173824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64256640"/>
+        <c:axId val="68159744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="64266624"/>
+        <c:crossAx val="68173824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64266624"/>
+        <c:axId val="68173824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1570,7 +1482,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64256640"/>
+        <c:crossAx val="68159744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1578,16 +1490,6 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1599,9 +1501,9 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1610,7 +1512,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US"/>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -1633,16 +1535,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1737,16 +1629,6 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1758,9 +1640,9 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1769,7 +1651,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US"/>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -1792,16 +1674,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1896,16 +1768,6 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1919,7 +1781,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -1935,22 +1797,12 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fürsprechende Haltung</c:v>
+                  <c:v>positiv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2046,22 +1898,12 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ablehnende Haltung</c:v>
+                  <c:v>negativ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2152,35 +1994,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="63274368"/>
-        <c:axId val="63276160"/>
+        <c:axId val="66931712"/>
+        <c:axId val="66937600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63274368"/>
+        <c:axId val="66931712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="63276160"/>
+        <c:crossAx val="66937600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63276160"/>
+        <c:axId val="66937600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2188,34 +2020,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="63274368"/>
+        <c:crossAx val="66931712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2229,7 +2040,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2252,16 +2063,6 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2363,16 +2164,6 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2474,16 +2265,6 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2585,16 +2366,6 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2696,16 +2467,6 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2796,11 +2557,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="63728640"/>
-        <c:axId val="63742720"/>
+        <c:axId val="67549824"/>
+        <c:axId val="67559808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63728640"/>
+        <c:axId val="67549824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2814,17 +2575,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63742720"/>
+        <c:crossAx val="67559808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63742720"/>
+        <c:axId val="67559808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2833,7 +2594,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63728640"/>
+        <c:crossAx val="67549824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2841,16 +2602,6 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2864,7 +2615,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2873,7 +2624,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US"/>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -2886,6 +2637,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -2899,16 +2651,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3002,16 +2744,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3025,7 +2758,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3034,7 +2767,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US"/>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
@@ -3044,6 +2777,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -3057,16 +2791,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3160,16 +2884,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3183,7 +2898,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3192,7 +2907,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US"/>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
@@ -3202,6 +2917,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -3215,16 +2931,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3318,16 +3024,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3341,7 +3038,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3350,7 +3047,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US"/>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
@@ -3360,6 +3057,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -3383,16 +3081,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3486,16 +3174,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3509,7 +3188,7 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3518,7 +3197,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US"/>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
@@ -3541,16 +3220,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3644,16 +3313,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3667,7 +3326,7 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -3682,16 +3341,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3737,16 +3386,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -4083,6 +3722,41 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
@@ -4173,7 +3847,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4555,27 +4229,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4755,7 +4427,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4765,19 +4437,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4822,7 +4494,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4842,7 +4514,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4882,7 +4554,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -4942,7 +4614,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -5006,12 +4678,12 @@
     <row r="15" spans="1:6">
       <c r="B15" s="2"/>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -5035,12 +4707,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -5056,7 +4728,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>14</v>
@@ -5083,7 +4755,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -5091,7 +4763,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5099,7 +4771,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -5107,7 +4779,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -5115,7 +4787,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -5129,15 +4801,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -5147,24 +4819,24 @@
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" s="6">
         <v>2</v>
@@ -5183,7 +4855,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
@@ -5200,7 +4872,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" s="6">
         <v>6</v>
@@ -5221,7 +4893,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" s="6">
         <v>6</v>
@@ -5242,7 +4914,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
@@ -5257,8 +4929,25 @@
       </c>
       <c r="G6" s="7"/>
     </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5278,10 +4967,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5308,7 +4997,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -5319,7 +5008,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -5341,7 +5030,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -5374,7 +5063,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -5429,13 +5118,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5468,7 +5157,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -5482,7 +5171,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -5510,7 +5199,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5552,7 +5241,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5596,4 +5285,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trunk/study/auswertung/auswertung arbeitgeber_teilnehmer 17.xlsx
+++ b/trunk/study/auswertung/auswertung arbeitgeber_teilnehmer 17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="vermiedene Anreize" sheetId="2" r:id="rId1"/>
@@ -14,14 +14,14 @@
     <sheet name="Retention" sheetId="6" r:id="rId5"/>
     <sheet name="Länder" sheetId="7" r:id="rId6"/>
     <sheet name="Wirtschaftsektor" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
+    <sheet name="Bedeutung Unternehmen" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
   <si>
     <t>immateriell</t>
   </si>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>Ich kenne den Begriff Retention Management nicht</t>
+  </si>
+  <si>
+    <t>Grosse Bedeutung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mittelmässige Bedeutung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geringe Bedeutung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keine Bedeutung </t>
   </si>
 </sst>
 </file>
@@ -384,26 +396,26 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="66888448"/>
-        <c:axId val="66889984"/>
+        <c:axId val="66966656"/>
+        <c:axId val="66968192"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66888448"/>
+        <c:axId val="66966656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66889984"/>
+        <c:crossAx val="66968192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66889984"/>
+        <c:axId val="66968192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -411,7 +423,7 @@
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66888448"/>
+        <c:crossAx val="66966656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -423,7 +435,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -508,7 +520,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -564,25 +576,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="39265024"/>
-        <c:axId val="39266560"/>
+        <c:axId val="68011520"/>
+        <c:axId val="68013056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39265024"/>
+        <c:axId val="68011520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39266560"/>
+        <c:crossAx val="68013056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39266560"/>
+        <c:axId val="68013056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -590,7 +602,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39265024"/>
+        <c:crossAx val="68011520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -599,7 +611,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -821,25 +833,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="67946752"/>
-        <c:axId val="67960832"/>
+        <c:axId val="68059136"/>
+        <c:axId val="68060672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67946752"/>
+        <c:axId val="68059136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67960832"/>
+        <c:crossAx val="68060672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67960832"/>
+        <c:axId val="68060672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,7 +859,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67946752"/>
+        <c:crossAx val="68059136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -859,7 +871,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -996,7 +1008,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1133,7 +1145,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1456,25 +1468,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="68159744"/>
-        <c:axId val="68173824"/>
+        <c:axId val="68210688"/>
+        <c:axId val="68212224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68159744"/>
+        <c:axId val="68210688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68173824"/>
+        <c:crossAx val="68212224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68173824"/>
+        <c:axId val="68212224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1482,20 +1494,19 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68159744"/>
+        <c:crossAx val="68210688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1521,7 +1532,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -1628,13 +1638,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1660,7 +1669,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -1767,13 +1775,115 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Bedeutung Unternehmen'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Grosse Bedeutung</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mittelmässige Bedeutung </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Geringe Bedeutung </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Keine Bedeutung </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bedeutung Unternehmen'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:overlap val="-25"/>
+        <c:axId val="56580736"/>
+        <c:axId val="71144960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="56580736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="71144960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="71144960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56580736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1994,25 +2104,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="66931712"/>
-        <c:axId val="66937600"/>
+        <c:axId val="67001728"/>
+        <c:axId val="67003520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66931712"/>
+        <c:axId val="67001728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66937600"/>
+        <c:crossAx val="67003520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66937600"/>
+        <c:axId val="67003520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2020,7 +2130,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66931712"/>
+        <c:crossAx val="67001728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2032,7 +2142,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2557,11 +2667,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="67549824"/>
-        <c:axId val="67559808"/>
+        <c:axId val="67611648"/>
+        <c:axId val="67629824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67549824"/>
+        <c:axId val="67611648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2578,14 +2688,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67559808"/>
+        <c:crossAx val="67629824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67559808"/>
+        <c:axId val="67629824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2594,20 +2704,19 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67549824"/>
+        <c:crossAx val="67611648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2637,7 +2746,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -2744,13 +2852,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2777,7 +2884,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -2884,13 +2990,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2917,7 +3022,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -3024,13 +3128,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3057,7 +3160,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -3072,7 +3174,7 @@
           <c:x val="7.8279053875661975E-2"/>
           <c:y val="0.43253818463531757"/>
           <c:w val="0.83160757272204877"/>
-          <c:h val="0.48032377632185302"/>
+          <c:h val="0.48032377632185314"/>
         </c:manualLayout>
       </c:layout>
       <c:pie3DChart>
@@ -3174,13 +3276,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3318,7 +3419,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3391,7 +3492,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3942,6 +4043,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4803,8 +4939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A24:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5289,12 +5425,51 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/study/auswertung/auswertung arbeitgeber_teilnehmer 17.xlsx
+++ b/trunk/study/auswertung/auswertung arbeitgeber_teilnehmer 17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="vermiedene Anreize" sheetId="2" r:id="rId1"/>
@@ -15,13 +15,18 @@
     <sheet name="Länder" sheetId="7" r:id="rId6"/>
     <sheet name="Wirtschaftsektor" sheetId="8" r:id="rId7"/>
     <sheet name="Bedeutung Unternehmen" sheetId="9" r:id="rId8"/>
+    <sheet name="Budget" sheetId="10" r:id="rId9"/>
+    <sheet name="Ressourcen" sheetId="11" r:id="rId10"/>
+    <sheet name="generlelle, individuelle Anwend" sheetId="12" r:id="rId11"/>
+    <sheet name="Einsatz" sheetId="13" r:id="rId12"/>
+    <sheet name="Gebrauch Retention" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
   <si>
     <t>immateriell</t>
   </si>
@@ -163,6 +168,48 @@
   <si>
     <t xml:space="preserve">Keine Bedeutung </t>
   </si>
+  <si>
+    <t>Es ist kein Budget vorhanden, jedoch ist eines vorgesehen</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Es ist kein Budget vorhanden und auch keines vorgesehen</t>
+  </si>
+  <si>
+    <t>kleiner als 5 Mitarbeiter</t>
+  </si>
+  <si>
+    <t>kleiner als 10 Mitarbeiter</t>
+  </si>
+  <si>
+    <t>grösser oder genau 10 Mitarbeiter</t>
+  </si>
+  <si>
+    <t>keine</t>
+  </si>
+  <si>
+    <t>Generell, für alle Mitarbeiter die selben Anreize</t>
+  </si>
+  <si>
+    <t>Anreize werden individuell pro Mitarbeiter angewandt</t>
+  </si>
+  <si>
+    <t>Beides</t>
+  </si>
+  <si>
+    <t>Sehr wirksam</t>
+  </si>
+  <si>
+    <t>Mässig wirksam</t>
+  </si>
+  <si>
+    <t>Nicht wirksam</t>
+  </si>
+  <si>
+    <t>Zeitlicher Gebrauch in Monaten</t>
+  </si>
 </sst>
 </file>
 
@@ -265,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -276,6 +323,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1791,17 +1841,17 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:dLbls>
-            <c:showVal val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Bedeutung Unternehmen'!$A$2:$A$5</c:f>
@@ -1845,40 +1895,85 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:showVal val="1"/>
+          <c:showPercent val="1"/>
         </c:dLbls>
-        <c:overlap val="-25"/>
-        <c:axId val="56580736"/>
-        <c:axId val="71144960"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="56580736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71144960"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="71144960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56580736"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+      </c:pie3DChart>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Budget!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ja</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Es ist kein Budget vorhanden, jedoch ist eines vorgesehen</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Es ist kein Budget vorhanden und auch keines vorgesehen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Budget!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
@@ -2143,6 +2238,363 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Ressourcen!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>keine</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>kleiner als 5 Mitarbeiter</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kleiner als 10 Mitarbeiter</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>grösser oder genau 10 Mitarbeiter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ressourcen!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'generlelle, individuelle Anwend'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Generell, für alle Mitarbeiter die selben Anreize</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Anreize werden individuell pro Mitarbeiter angewandt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Beides</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'generlelle, individuelle Anwend'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Einsatz!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Sehr wirksam</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mässig wirksam</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nicht wirksam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Einsatz!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gebrauch Retention'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zeitlicher Gebrauch in Monaten</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gebrauch Retention'!$A$3:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:overlap val="-25"/>
+        <c:axId val="69112576"/>
+        <c:axId val="69114112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="69112576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69114112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69114112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69112576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3555,6 +4007,146 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4047,20 +4639,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4558,6 +5185,249 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="53.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:A19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="8">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
@@ -5427,8 +6297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5472,4 +6342,47 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="54.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/study/auswertung/auswertung arbeitgeber_teilnehmer 17.xlsx
+++ b/trunk/study/auswertung/auswertung arbeitgeber_teilnehmer 17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15480" windowHeight="8385" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="vermiedene Anreize" sheetId="2" r:id="rId1"/>
@@ -337,7 +337,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -355,6 +355,16 @@
             <c:v>Verwendung in %</c:v>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -446,26 +456,36 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="66966656"/>
-        <c:axId val="66968192"/>
+        <c:axId val="63467520"/>
+        <c:axId val="63469056"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66966656"/>
+        <c:axId val="63467520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66968192"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63469056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66968192"/>
+        <c:axId val="63469056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -473,19 +493,39 @@
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66966656"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63467520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -493,7 +533,7 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -508,6 +548,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -565,12 +615,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -578,7 +638,7 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -590,6 +650,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -626,25 +696,35 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="68011520"/>
-        <c:axId val="68013056"/>
+        <c:axId val="64668032"/>
+        <c:axId val="64669568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68011520"/>
+        <c:axId val="64668032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68013056"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64669568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68013056"/>
+        <c:axId val="64669568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -652,7 +732,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68011520"/>
+        <c:crossAx val="64668032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -661,7 +741,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -669,7 +749,7 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -692,6 +772,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -793,6 +883,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -883,25 +983,35 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="68059136"/>
-        <c:axId val="68060672"/>
+        <c:axId val="64731776"/>
+        <c:axId val="64745856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68059136"/>
+        <c:axId val="64731776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68060672"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64745856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68060672"/>
+        <c:axId val="64745856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,19 +1019,29 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68059136"/>
+        <c:crossAx val="64731776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -929,7 +1049,7 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -938,7 +1058,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -960,6 +1080,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1053,12 +1183,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1066,7 +1206,7 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1075,7 +1215,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -1097,6 +1237,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1190,12 +1340,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1203,7 +1363,7 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1226,6 +1386,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1327,6 +1497,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1428,6 +1608,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1518,25 +1708,35 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="68210688"/>
-        <c:axId val="68212224"/>
+        <c:axId val="64858752"/>
+        <c:axId val="64876928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68210688"/>
+        <c:axId val="64858752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68212224"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64876928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68212224"/>
+        <c:axId val="64876928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1544,19 +1744,29 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68210688"/>
+        <c:crossAx val="64858752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1564,7 +1774,7 @@
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1573,7 +1783,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -1595,6 +1805,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1688,12 +1908,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1701,7 +1931,7 @@
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1710,7 +1940,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -1732,6 +1962,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1825,12 +2065,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1838,7 +2088,7 @@
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -1852,6 +2102,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Bedeutung Unternehmen'!$A$2:$A$5</c:f>
@@ -1901,13 +2164,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1915,7 +2187,7 @@
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -1929,6 +2201,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Budget!$A$2:$A$4</c:f>
@@ -1972,13 +2257,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1986,7 +2280,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -2008,6 +2302,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2109,6 +2413,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2199,25 +2513,35 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="67001728"/>
-        <c:axId val="67003520"/>
+        <c:axId val="64035072"/>
+        <c:axId val="64053248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67001728"/>
+        <c:axId val="64035072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67003520"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64053248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67003520"/>
+        <c:axId val="64053248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2225,19 +2549,39 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67001728"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64035072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2245,7 +2589,7 @@
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -2259,6 +2603,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Ressourcen!$A$2:$A$5</c:f>
@@ -2309,12 +2666,22 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2322,7 +2689,7 @@
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -2336,6 +2703,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'generlelle, individuelle Anwend'!$A$2:$A$4</c:f>
@@ -2380,12 +2760,22 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2393,7 +2783,7 @@
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -2407,6 +2797,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Einsatz!$A$2:$A$4</c:f>
@@ -2451,12 +2854,22 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2464,7 +2877,7 @@
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2487,6 +2900,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:val>
@@ -2554,25 +2977,35 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="69112576"/>
-        <c:axId val="69114112"/>
+        <c:axId val="65415424"/>
+        <c:axId val="65425408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69112576"/>
+        <c:axId val="65415424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69114112"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65425408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69114112"/>
+        <c:axId val="65425408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2581,7 +3014,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69112576"/>
+        <c:crossAx val="65415424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2589,12 +3022,22 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2602,7 +3045,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2625,6 +3068,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2726,6 +3179,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2827,6 +3290,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2928,6 +3401,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3029,6 +3512,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3119,11 +3612,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="67611648"/>
-        <c:axId val="67629824"/>
+        <c:axId val="64231296"/>
+        <c:axId val="64232832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67611648"/>
+        <c:axId val="64231296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3137,17 +3630,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67629824"/>
+        <c:crossAx val="64232832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67629824"/>
+        <c:axId val="64232832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3156,19 +3649,29 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67611648"/>
+        <c:crossAx val="64231296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3176,7 +3679,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3185,7 +3688,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -3211,6 +3714,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3304,12 +3817,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3317,7 +3840,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3326,7 +3849,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
@@ -3349,6 +3872,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3442,12 +3975,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3455,7 +3998,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3464,7 +4007,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
@@ -3487,6 +4030,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3580,12 +4133,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3593,7 +4156,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3602,7 +4165,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
@@ -3626,7 +4189,7 @@
           <c:x val="7.8279053875661975E-2"/>
           <c:y val="0.43253818463531757"/>
           <c:w val="0.83160757272204877"/>
-          <c:h val="0.48032377632185314"/>
+          <c:h val="0.4803237763218533"/>
         </c:manualLayout>
       </c:layout>
       <c:pie3DChart>
@@ -3635,6 +4198,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3728,12 +4301,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3741,7 +4324,7 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3750,7 +4333,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
@@ -3773,6 +4356,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3866,12 +4459,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3879,7 +4482,7 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -3894,6 +4497,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3939,12 +4552,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4414,16 +5037,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3152775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5326,7 +5949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -5809,8 +6432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A24:A25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trunk/study/auswertung/auswertung arbeitgeber_teilnehmer 17.xlsx
+++ b/trunk/study/auswertung/auswertung arbeitgeber_teilnehmer 17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15480" windowHeight="8385" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15480" windowHeight="8385" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="vermiedene Anreize" sheetId="2" r:id="rId1"/>
@@ -2090,7 +2090,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-CH"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:view3D>
       <c:rotX val="30"/>
       <c:perspective val="30"/>
@@ -2103,17 +2102,10 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showVal val="1"/>
             <c:showPercent val="1"/>
+            <c:showLeaderLines val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2142,13 +2134,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -2157,29 +2149,17 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showPercent val="1"/>
-        </c:dLbls>
       </c:pie3DChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2257,6 +2237,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -5262,20 +5243,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6432,7 +6413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -6920,8 +6901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6934,7 +6915,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6942,7 +6923,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6950,7 +6931,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">

--- a/trunk/study/auswertung/auswertung arbeitgeber_teilnehmer 17.xlsx
+++ b/trunk/study/auswertung/auswertung arbeitgeber_teilnehmer 17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15480" windowHeight="8385" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="vermiedene Anreize" sheetId="2" r:id="rId1"/>
@@ -142,12 +142,6 @@
     <t>Deutschland</t>
   </si>
   <si>
-    <t>landwirtschaftlich</t>
-  </si>
-  <si>
-    <t>industriell</t>
-  </si>
-  <si>
     <t>Dienstleistung</t>
   </si>
   <si>
@@ -209,6 +203,12 @@
   </si>
   <si>
     <t>Zeitlicher Gebrauch in Monaten</t>
+  </si>
+  <si>
+    <t>Industrie</t>
+  </si>
+  <si>
+    <t>Landwirtschaft</t>
   </si>
 </sst>
 </file>
@@ -337,7 +337,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -355,16 +355,6 @@
             <c:v>Verwendung in %</c:v>
           </c:tx>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -456,36 +446,26 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="63467520"/>
-        <c:axId val="63469056"/>
+        <c:axId val="93394432"/>
+        <c:axId val="93395968"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="63467520"/>
+        <c:axId val="93394432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="63469056"/>
+        <c:crossAx val="93395968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63469056"/>
+        <c:axId val="93395968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -493,33 +473,13 @@
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="63467520"/>
+        <c:crossAx val="93394432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -533,7 +493,7 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -548,16 +508,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -615,16 +565,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -638,7 +578,7 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -650,16 +590,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -696,35 +626,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="64668032"/>
-        <c:axId val="64669568"/>
+        <c:axId val="93906816"/>
+        <c:axId val="93908352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64668032"/>
+        <c:axId val="93906816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="64669568"/>
+        <c:crossAx val="93908352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64669568"/>
+        <c:axId val="93908352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -732,7 +652,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64668032"/>
+        <c:crossAx val="93906816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -749,7 +669,7 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -772,16 +692,6 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -883,16 +793,6 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -983,35 +883,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="64731776"/>
-        <c:axId val="64745856"/>
+        <c:axId val="93958528"/>
+        <c:axId val="93960064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64731776"/>
+        <c:axId val="93958528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="64745856"/>
+        <c:crossAx val="93960064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64745856"/>
+        <c:axId val="93960064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1019,23 +909,14 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64731776"/>
+        <c:crossAx val="93958528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1049,7 +930,7 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1058,7 +939,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US"/>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -1067,6 +948,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -1080,16 +962,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1183,16 +1055,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1206,7 +1069,7 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1215,7 +1078,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US"/>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -1224,6 +1087,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -1237,16 +1101,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1340,16 +1194,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1363,7 +1208,285 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Industrie</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Wirtschaftsektor!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wirtschaftsektor!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dienstleistung</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Wirtschaftsektor!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wirtschaftsektor!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1380,22 +1503,12 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>landwirtschaftlich</c:v>
+                  <c:v>Industrie</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1452,16 +1565,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1470,13 +1583,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1491,22 +1604,12 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>industriell</c:v>
+                  <c:v>Dienstleistung</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1557,37 +1660,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1602,22 +1705,12 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Dienstleistung</c:v>
+                  <c:v>Landwirtschaft</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1668,37 +1761,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1708,35 +1801,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="64858752"/>
-        <c:axId val="64876928"/>
+        <c:axId val="129661184"/>
+        <c:axId val="129695744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64858752"/>
+        <c:axId val="129661184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="64876928"/>
+        <c:crossAx val="129695744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64876928"/>
+        <c:axId val="129695744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1744,412 +1827,10 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64858752"/>
+        <c:crossAx val="129661184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Industrie</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:perspective val="30"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-            <c:showPercent val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Wirtschaftsektor!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsätze</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Persönliche Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Flexible Arbeitszeiten</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Wirtschaftsektor!$C$2:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showPercent val="1"/>
-        </c:dLbls>
-      </c:pie3DChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Dienstleistung</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:perspective val="30"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-            <c:showPercent val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Wirtschaftsektor!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsätze</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Persönliche Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Flexible Arbeitszeiten</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Wirtschaftsektor!$D$2:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showPercent val="1"/>
-        </c:dLbls>
-      </c:pie3DChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
-  <c:chart>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:perspective val="30"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="inEnd"/>
-            <c:showVal val="1"/>
-            <c:showPercent val="1"/>
-            <c:showLeaderLines val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Bedeutung Unternehmen'!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Grosse Bedeutung</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mittelmässige Bedeutung </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Geringe Bedeutung </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Keine Bedeutung </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Bedeutung Unternehmen'!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-      </c:pie3DChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
@@ -2165,9 +1846,9 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -2182,49 +1863,45 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Budget!$A$2:$A$4</c:f>
+              <c:f>'Bedeutung Unternehmen'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Ja</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Grosse Bedeutung</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Es ist kein Budget vorhanden, jedoch ist eines vorgesehen</c:v>
+                  <c:v>Mittelmässige Bedeutung </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Es ist kein Budget vorhanden und auch keines vorgesehen</c:v>
+                  <c:v>Geringe Bedeutung </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Keine Bedeutung </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Budget!$B$2:$B$4</c:f>
+              <c:f>'Bedeutung Unternehmen'!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2237,17 +1914,79 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
       <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Budget!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ja</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Es ist kein Budget vorhanden, jedoch ist eines vorgesehen</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Es ist kein Budget vorhanden und auch keines vorgesehen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Budget!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2261,7 +2000,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -2283,16 +2022,6 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2394,16 +2123,6 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2494,35 +2213,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="64035072"/>
-        <c:axId val="64053248"/>
+        <c:axId val="93413376"/>
+        <c:axId val="93414912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64035072"/>
+        <c:axId val="93413376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="64053248"/>
+        <c:crossAx val="93414912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64053248"/>
+        <c:axId val="93414912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2530,33 +2239,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="64035072"/>
+        <c:crossAx val="93413376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2570,7 +2259,7 @@
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -2585,16 +2274,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2646,17 +2325,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2670,7 +2338,7 @@
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -2685,16 +2353,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2740,17 +2398,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2764,7 +2411,7 @@
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -2779,16 +2426,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2834,17 +2471,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2858,7 +2484,7 @@
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2881,16 +2507,6 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:val>
@@ -2958,35 +2574,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="65415424"/>
-        <c:axId val="65425408"/>
+        <c:axId val="94990336"/>
+        <c:axId val="94991872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65415424"/>
+        <c:axId val="94990336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="65425408"/>
+        <c:crossAx val="94991872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65425408"/>
+        <c:axId val="94991872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2995,7 +2601,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65415424"/>
+        <c:crossAx val="94990336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3003,16 +2609,6 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3026,7 +2622,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -3049,16 +2645,6 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3160,16 +2746,6 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3271,16 +2847,6 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3382,16 +2948,6 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3493,16 +3049,6 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3593,11 +3139,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="64231296"/>
-        <c:axId val="64232832"/>
+        <c:axId val="93547904"/>
+        <c:axId val="93557888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64231296"/>
+        <c:axId val="93547904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3611,17 +3157,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64232832"/>
+        <c:crossAx val="93557888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64232832"/>
+        <c:axId val="93557888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3630,23 +3176,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64231296"/>
+        <c:crossAx val="93547904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3660,7 +3197,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3669,7 +3206,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US"/>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -3695,16 +3232,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3798,16 +3325,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3821,7 +3338,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3830,7 +3347,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US"/>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
@@ -3853,16 +3370,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3956,16 +3463,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3979,7 +3476,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3988,7 +3485,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US"/>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
@@ -4011,16 +3508,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -4114,16 +3601,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -4137,7 +3614,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4146,7 +3623,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US"/>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
@@ -4179,16 +3656,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -4282,16 +3749,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -4305,7 +3762,7 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4314,7 +3771,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US"/>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
@@ -4337,16 +3794,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -4440,16 +3887,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -4463,7 +3900,7 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -4478,16 +3915,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -4533,16 +3960,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -5018,16 +4435,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3152775</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5148,36 +4565,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>23</xdr:row>
@@ -5200,7 +4587,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5230,6 +4617,36 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
@@ -5243,20 +4660,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5804,7 +5221,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1">
         <v>7</v>
@@ -5812,7 +5229,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1">
         <v>6</v>
@@ -5820,7 +5237,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -5828,7 +5245,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -5855,7 +5272,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -5863,7 +5280,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1">
         <v>12</v>
@@ -5871,7 +5288,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -5898,7 +5315,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1">
         <v>7</v>
@@ -5906,7 +5323,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1">
         <v>9</v>
@@ -5914,7 +5331,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -5938,7 +5355,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -6037,7 +5454,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F2" sqref="F2:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6413,8 +5830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A24:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6541,7 +5958,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>12</v>
@@ -6549,7 +5966,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -6565,8 +5982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C21" sqref="C20:C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6714,27 +6131,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6745,10 +6162,10 @@
         <v>0</v>
       </c>
       <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
         <v>0</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6759,10 +6176,10 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
         <v>1</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6770,13 +6187,13 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6787,10 +6204,10 @@
         <v>0</v>
       </c>
       <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
         <v>0</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6798,13 +6215,13 @@
         <v>5</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
         <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6812,13 +6229,13 @@
         <v>16</v>
       </c>
       <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
         <v>1</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6829,10 +6246,10 @@
         <v>0</v>
       </c>
       <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
         <v>0</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6843,10 +6260,10 @@
         <v>0</v>
       </c>
       <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
         <v>0</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6854,13 +6271,13 @@
         <v>17</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
         <v>0</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6868,13 +6285,13 @@
         <v>10</v>
       </c>
       <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
         <v>0</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6882,13 +6299,13 @@
         <v>11</v>
       </c>
       <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
         <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6901,8 +6318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6912,31 +6329,31 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -6963,7 +6380,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1">
         <v>7</v>
@@ -6971,7 +6388,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -6979,7 +6396,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1">
         <v>8</v>

--- a/trunk/study/auswertung/auswertung arbeitgeber_teilnehmer 17.xlsx
+++ b/trunk/study/auswertung/auswertung arbeitgeber_teilnehmer 17.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385"/>
   </bookViews>
   <sheets>
-    <sheet name="vermiedene Anreize" sheetId="2" r:id="rId1"/>
+    <sheet name="vermiedene, gebrauchte Anreize" sheetId="2" r:id="rId1"/>
     <sheet name="Firmengrösse" sheetId="3" r:id="rId2"/>
-    <sheet name="eingesetze Anreize" sheetId="4" r:id="rId3"/>
+    <sheet name="eingesetze Art" sheetId="4" r:id="rId3"/>
     <sheet name="Mitarbeitergespräch" sheetId="5" r:id="rId4"/>
     <sheet name="Retention" sheetId="6" r:id="rId5"/>
     <sheet name="Länder" sheetId="7" r:id="rId6"/>
@@ -62,12 +62,6 @@
   </si>
   <si>
     <t>Sabbatical</t>
-  </si>
-  <si>
-    <t>negativ</t>
-  </si>
-  <si>
-    <t>positiv</t>
   </si>
   <si>
     <t>Auslandeinsätze</t>
@@ -209,6 +203,12 @@
   </si>
   <si>
     <t>Landwirtschaft</t>
+  </si>
+  <si>
+    <t>Positiv</t>
+  </si>
+  <si>
+    <t>Negativ</t>
   </si>
 </sst>
 </file>
@@ -359,7 +359,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'vermiedene Anreize'!$A$2:$A$12</c:f>
+              <c:f>'vermiedene, gebrauchte Anreize'!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -400,7 +400,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'vermiedene Anreize'!$E$2:$E$12</c:f>
+              <c:f>'vermiedene, gebrauchte Anreize'!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -446,26 +446,26 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="93394432"/>
-        <c:axId val="93395968"/>
+        <c:axId val="66706816"/>
+        <c:axId val="66811008"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="93394432"/>
+        <c:axId val="66706816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93395968"/>
+        <c:crossAx val="66811008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93395968"/>
+        <c:axId val="66811008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -473,19 +473,20 @@
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93394432"/>
+        <c:crossAx val="66706816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -565,12 +566,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -626,25 +628,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="93906816"/>
-        <c:axId val="93908352"/>
+        <c:axId val="67829760"/>
+        <c:axId val="67831296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93906816"/>
+        <c:axId val="67829760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93908352"/>
+        <c:crossAx val="67831296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93908352"/>
+        <c:axId val="67831296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -652,7 +654,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93906816"/>
+        <c:crossAx val="67829760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -661,7 +663,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -883,25 +885,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="93958528"/>
-        <c:axId val="93960064"/>
+        <c:axId val="67868928"/>
+        <c:axId val="67895296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93958528"/>
+        <c:axId val="67868928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93960064"/>
+        <c:crossAx val="67895296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93960064"/>
+        <c:axId val="67895296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,7 +911,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93958528"/>
+        <c:crossAx val="67868928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -922,7 +924,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1061,7 +1063,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1200,7 +1202,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1339,7 +1341,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1478,7 +1480,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1801,25 +1803,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="129661184"/>
-        <c:axId val="129695744"/>
+        <c:axId val="68229376"/>
+        <c:axId val="68243456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="129661184"/>
+        <c:axId val="68229376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129695744"/>
+        <c:crossAx val="68243456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129695744"/>
+        <c:axId val="68243456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1827,7 +1829,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129661184"/>
+        <c:crossAx val="68229376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1840,7 +1842,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1914,12 +1916,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1987,12 +1990,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2012,11 +2016,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'vermiedene Anreize'!$B$1</c:f>
+              <c:f>'vermiedene, gebrauchte Anreize'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>positiv</c:v>
+                  <c:v>Positiv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2026,7 +2030,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'vermiedene Anreize'!$A$2:$A$12</c:f>
+              <c:f>'vermiedene, gebrauchte Anreize'!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -2067,7 +2071,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'vermiedene Anreize'!$B$2:$B$12</c:f>
+              <c:f>'vermiedene, gebrauchte Anreize'!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2113,11 +2117,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'vermiedene Anreize'!$C$1</c:f>
+              <c:f>'vermiedene, gebrauchte Anreize'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>negativ</c:v>
+                  <c:v>Negativ</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2127,7 +2131,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'vermiedene Anreize'!$A$2:$A$12</c:f>
+              <c:f>'vermiedene, gebrauchte Anreize'!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -2168,7 +2172,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'vermiedene Anreize'!$C$2:$C$12</c:f>
+              <c:f>'vermiedene, gebrauchte Anreize'!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2213,25 +2217,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="93413376"/>
-        <c:axId val="93414912"/>
+        <c:axId val="66832256"/>
+        <c:axId val="66833792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93413376"/>
+        <c:axId val="66832256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93414912"/>
+        <c:crossAx val="66833792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93414912"/>
+        <c:axId val="66833792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2239,19 +2243,20 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93413376"/>
+        <c:crossAx val="66832256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2325,12 +2330,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2398,12 +2404,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2471,12 +2478,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2574,25 +2582,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="94990336"/>
-        <c:axId val="94991872"/>
+        <c:axId val="68544384"/>
+        <c:axId val="68545920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94990336"/>
+        <c:axId val="68544384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94991872"/>
+        <c:crossAx val="68545920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94991872"/>
+        <c:axId val="68545920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2601,7 +2609,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94990336"/>
+        <c:crossAx val="68544384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2614,7 +2622,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3139,11 +3147,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="93547904"/>
-        <c:axId val="93557888"/>
+        <c:axId val="67384832"/>
+        <c:axId val="67386368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93547904"/>
+        <c:axId val="67384832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3160,14 +3168,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93557888"/>
+        <c:crossAx val="67386368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93557888"/>
+        <c:axId val="67386368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3176,7 +3184,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93547904"/>
+        <c:crossAx val="67384832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3189,7 +3197,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3219,6 +3227,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -3325,12 +3334,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3357,6 +3367,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -3463,12 +3474,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3495,6 +3507,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -3601,12 +3614,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3633,6 +3647,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -3647,7 +3662,7 @@
           <c:x val="7.8279053875661975E-2"/>
           <c:y val="0.43253818463531757"/>
           <c:w val="0.83160757272204877"/>
-          <c:h val="0.4803237763218533"/>
+          <c:h val="0.48032377632185341"/>
         </c:manualLayout>
       </c:layout>
       <c:pie3DChart>
@@ -3749,12 +3764,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3892,7 +3908,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3919,7 +3935,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'eingesetze Anreize'!$A$2:$A$4</c:f>
+              <c:f>'eingesetze Art'!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3936,7 +3952,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'eingesetze Anreize'!$B$2:$B$4</c:f>
+              <c:f>'eingesetze Art'!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3960,12 +3976,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5013,8 +5030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5025,13 +5042,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5045,7 +5062,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="4">
-        <f t="shared" ref="E2:E12" si="0">100/17*B2</f>
+        <f>100/17*B2</f>
         <v>35.294117647058826</v>
       </c>
     </row>
@@ -5060,7 +5077,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E2:E12" si="0">100/17*B3</f>
         <v>52.941176470588239</v>
       </c>
     </row>
@@ -5221,7 +5238,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1">
         <v>7</v>
@@ -5229,7 +5246,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1">
         <v>6</v>
@@ -5237,7 +5254,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -5245,7 +5262,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -5272,7 +5289,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -5280,7 +5297,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1">
         <v>12</v>
@@ -5288,7 +5305,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -5315,7 +5332,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1">
         <v>7</v>
@@ -5323,7 +5340,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1">
         <v>9</v>
@@ -5331,7 +5348,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -5355,7 +5372,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -5464,19 +5481,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5521,7 +5538,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -5541,7 +5558,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -5581,7 +5598,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -5641,7 +5658,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -5705,12 +5722,12 @@
     <row r="15" spans="1:6">
       <c r="B15" s="2"/>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5734,12 +5751,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -5755,7 +5772,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>14</v>
@@ -5782,7 +5799,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -5790,7 +5807,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5798,7 +5815,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -5806,7 +5823,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -5814,7 +5831,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -5846,24 +5863,24 @@
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="6">
         <v>2</v>
@@ -5882,7 +5899,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
@@ -5899,7 +5916,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="6">
         <v>6</v>
@@ -5920,7 +5937,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" s="6">
         <v>6</v>
@@ -5941,7 +5958,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
@@ -5958,7 +5975,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>12</v>
@@ -5966,7 +5983,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -5994,10 +6011,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6024,7 +6041,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -6035,7 +6052,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6057,7 +6074,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -6090,7 +6107,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -6131,7 +6148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -6145,13 +6162,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6184,7 +6201,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -6198,7 +6215,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6226,7 +6243,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -6268,7 +6285,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -6318,7 +6335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -6329,7 +6346,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1">
         <v>11</v>
@@ -6337,7 +6354,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -6345,7 +6362,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -6353,7 +6370,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -6380,7 +6397,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1">
         <v>7</v>
@@ -6388,7 +6405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -6396,7 +6413,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1">
         <v>8</v>

--- a/trunk/study/auswertung/auswertung arbeitgeber_teilnehmer 17.xlsx
+++ b/trunk/study/auswertung/auswertung arbeitgeber_teilnehmer 17.xlsx
@@ -205,10 +205,10 @@
     <t>Landwirtschaft</t>
   </si>
   <si>
-    <t>Positiv</t>
+    <t>Ablehnende Haltung</t>
   </si>
   <si>
-    <t>Negativ</t>
+    <t>Fürsprechende Haltung</t>
   </si>
 </sst>
 </file>
@@ -337,7 +337,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -355,6 +355,16 @@
             <c:v>Verwendung in %</c:v>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -446,26 +456,36 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="66706816"/>
-        <c:axId val="66811008"/>
+        <c:axId val="55809920"/>
+        <c:axId val="55811456"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66706816"/>
+        <c:axId val="55809920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66811008"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55811456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66811008"/>
+        <c:axId val="55811456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -473,7 +493,17 @@
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66706816"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="55809920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -481,12 +511,22 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -494,7 +534,7 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -509,6 +549,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -567,12 +617,22 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -580,7 +640,7 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -592,6 +652,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -628,25 +698,35 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="67829760"/>
-        <c:axId val="67831296"/>
+        <c:axId val="66627840"/>
+        <c:axId val="66650112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67829760"/>
+        <c:axId val="66627840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67831296"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66650112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67831296"/>
+        <c:axId val="66650112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -654,7 +734,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67829760"/>
+        <c:crossAx val="66627840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -663,7 +743,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -671,7 +751,7 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -694,6 +774,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -795,6 +885,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -885,25 +985,35 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="67868928"/>
-        <c:axId val="67895296"/>
+        <c:axId val="66712320"/>
+        <c:axId val="66713856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67868928"/>
+        <c:axId val="66712320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67895296"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66713856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67895296"/>
+        <c:axId val="66713856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,20 +1021,29 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67868928"/>
+        <c:crossAx val="66712320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -932,7 +1051,7 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -941,7 +1060,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -950,7 +1069,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -964,6 +1082,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1057,13 +1185,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1071,7 +1208,7 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1080,7 +1217,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -1089,7 +1226,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -1103,6 +1239,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1196,13 +1342,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1210,7 +1365,7 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1219,7 +1374,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -1228,7 +1383,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -1242,6 +1396,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1335,13 +1499,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1349,7 +1522,7 @@
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1358,7 +1531,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -1367,7 +1540,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -1381,6 +1553,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1474,13 +1656,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1488,7 +1679,7 @@
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1511,6 +1702,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1612,6 +1813,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1713,6 +1924,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1803,25 +2024,35 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="68229376"/>
-        <c:axId val="68243456"/>
+        <c:axId val="67347200"/>
+        <c:axId val="67348736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68229376"/>
+        <c:axId val="67347200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68243456"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="67348736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68243456"/>
+        <c:axId val="67348736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1829,20 +2060,29 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68229376"/>
+        <c:crossAx val="67347200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1850,7 +2090,7 @@
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -1865,6 +2105,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1916,13 +2166,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1930,7 +2189,7 @@
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -1945,6 +2204,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1990,13 +2259,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2004,7 +2282,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -2020,12 +2298,22 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Positiv</c:v>
+                  <c:v>Fürsprechende Haltung</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2121,12 +2409,22 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Negativ</c:v>
+                  <c:v>Ablehnende Haltung</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2217,25 +2515,35 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="66832256"/>
-        <c:axId val="66833792"/>
+        <c:axId val="65704320"/>
+        <c:axId val="65705856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66832256"/>
+        <c:axId val="65704320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66833792"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65705856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66833792"/>
+        <c:axId val="65705856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2243,7 +2551,17 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66832256"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65704320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2251,12 +2569,22 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2264,7 +2592,7 @@
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -2279,6 +2607,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2330,13 +2668,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2344,7 +2691,7 @@
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -2359,6 +2706,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2404,13 +2761,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2418,7 +2784,7 @@
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -2433,6 +2799,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2479,12 +2855,22 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2492,7 +2878,7 @@
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2515,6 +2901,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:val>
@@ -2582,25 +2978,35 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="68544384"/>
-        <c:axId val="68545920"/>
+        <c:axId val="72831360"/>
+        <c:axId val="72832896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68544384"/>
+        <c:axId val="72831360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68545920"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="72832896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68545920"/>
+        <c:axId val="72832896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2609,7 +3015,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68544384"/>
+        <c:crossAx val="72831360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2617,12 +3023,22 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2630,7 +3046,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2653,6 +3069,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2754,6 +3180,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2855,6 +3291,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2956,6 +3402,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3057,6 +3513,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3147,11 +3613,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="67384832"/>
-        <c:axId val="67386368"/>
+        <c:axId val="66289664"/>
+        <c:axId val="66291200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67384832"/>
+        <c:axId val="66289664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3165,17 +3631,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67386368"/>
+        <c:crossAx val="66291200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67386368"/>
+        <c:axId val="66291200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3184,20 +3650,29 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67384832"/>
+        <c:crossAx val="66289664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3205,7 +3680,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3214,7 +3689,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -3227,7 +3702,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -3241,6 +3715,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3334,13 +3818,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3348,7 +3841,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3357,7 +3850,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
@@ -3367,7 +3860,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -3381,6 +3873,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3474,13 +3976,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3488,7 +3999,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3497,7 +4008,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
@@ -3507,7 +4018,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -3521,6 +4031,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3614,13 +4134,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3628,7 +4157,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3637,7 +4166,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
@@ -3647,7 +4176,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -3662,7 +4190,7 @@
           <c:x val="7.8279053875661975E-2"/>
           <c:y val="0.43253818463531757"/>
           <c:w val="0.83160757272204877"/>
-          <c:h val="0.48032377632185341"/>
+          <c:h val="0.48032377632185352"/>
         </c:manualLayout>
       </c:layout>
       <c:pie3DChart>
@@ -3671,6 +4199,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3764,13 +4302,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3778,7 +4325,7 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3787,7 +4334,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
@@ -3810,6 +4357,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3903,12 +4460,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3916,7 +4483,7 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -3931,6 +4498,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3977,12 +4554,22 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5030,22 +5617,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
         <v>59</v>
-      </c>
-      <c r="C1" t="s">
-        <v>60</v>
       </c>
       <c r="E1" t="s">
         <v>33</v>
@@ -5077,7 +5666,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E2:E12" si="0">100/17*B3</f>
+        <f t="shared" ref="E3:E12" si="0">100/17*B3</f>
         <v>52.941176470588239</v>
       </c>
     </row>

--- a/trunk/study/auswertung/auswertung arbeitgeber_teilnehmer 17.xlsx
+++ b/trunk/study/auswertung/auswertung arbeitgeber_teilnehmer 17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="vermiedene, gebrauchte Anreize" sheetId="2" r:id="rId1"/>
@@ -456,12 +456,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="55809920"/>
-        <c:axId val="55811456"/>
+        <c:axId val="57134080"/>
+        <c:axId val="57135872"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="55809920"/>
+        <c:axId val="57134080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -478,14 +478,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55811456"/>
+        <c:crossAx val="57135872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55811456"/>
+        <c:axId val="57135872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,7 +503,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55809920"/>
+        <c:crossAx val="57134080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -526,7 +526,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -616,7 +616,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -632,7 +631,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -698,11 +697,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="66627840"/>
-        <c:axId val="66650112"/>
+        <c:axId val="65588608"/>
+        <c:axId val="65598592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66627840"/>
+        <c:axId val="65588608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -719,14 +718,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66650112"/>
+        <c:crossAx val="65598592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66650112"/>
+        <c:axId val="65598592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -734,7 +733,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66627840"/>
+        <c:crossAx val="65588608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -743,7 +742,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -985,11 +984,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="66712320"/>
-        <c:axId val="66713856"/>
+        <c:axId val="65750912"/>
+        <c:axId val="65752448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66712320"/>
+        <c:axId val="65750912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1006,14 +1005,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66713856"/>
+        <c:crossAx val="65752448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66713856"/>
+        <c:axId val="65752448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1021,13 +1020,14 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66712320"/>
+        <c:crossAx val="65750912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1043,7 +1043,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1069,6 +1069,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -1185,6 +1186,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1200,7 +1202,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1226,6 +1228,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -1342,6 +1345,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1357,7 +1361,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1383,6 +1387,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -1499,6 +1504,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1514,7 +1520,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1540,6 +1546,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -1656,6 +1663,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1671,7 +1679,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2024,11 +2032,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="67347200"/>
-        <c:axId val="67348736"/>
+        <c:axId val="65988480"/>
+        <c:axId val="65990016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67347200"/>
+        <c:axId val="65988480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,14 +2053,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67348736"/>
+        <c:crossAx val="65990016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67348736"/>
+        <c:axId val="65990016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2060,13 +2068,14 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67347200"/>
+        <c:crossAx val="65988480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2082,7 +2091,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2181,7 +2190,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2274,7 +2283,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2515,11 +2524,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="65704320"/>
-        <c:axId val="65705856"/>
+        <c:axId val="57529856"/>
+        <c:axId val="57531392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65704320"/>
+        <c:axId val="57529856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2536,14 +2545,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65705856"/>
+        <c:crossAx val="57531392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65705856"/>
+        <c:axId val="57531392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2561,7 +2570,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65704320"/>
+        <c:crossAx val="57529856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2584,7 +2593,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2683,7 +2692,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2776,7 +2785,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2854,7 +2863,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2870,7 +2878,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2978,11 +2986,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="72831360"/>
-        <c:axId val="72832896"/>
+        <c:axId val="66303488"/>
+        <c:axId val="66305024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="72831360"/>
+        <c:axId val="66303488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2999,14 +3007,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72832896"/>
+        <c:crossAx val="66305024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72832896"/>
+        <c:axId val="66305024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3015,14 +3023,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72831360"/>
+        <c:crossAx val="66303488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3038,7 +3045,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3613,11 +3620,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="66289664"/>
-        <c:axId val="66291200"/>
+        <c:axId val="58105856"/>
+        <c:axId val="58107392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66289664"/>
+        <c:axId val="58105856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3634,14 +3641,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66291200"/>
+        <c:crossAx val="58107392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66291200"/>
+        <c:axId val="58107392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3650,13 +3657,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66289664"/>
+        <c:crossAx val="58105856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3672,7 +3680,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3702,6 +3710,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -3818,6 +3827,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3833,7 +3843,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3860,6 +3870,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -3976,6 +3987,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3991,7 +4003,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4149,7 +4161,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4190,7 +4202,7 @@
           <c:x val="7.8279053875661975E-2"/>
           <c:y val="0.43253818463531757"/>
           <c:w val="0.83160757272204877"/>
-          <c:h val="0.48032377632185352"/>
+          <c:h val="0.48032377632185363"/>
         </c:manualLayout>
       </c:layout>
       <c:pie3DChart>
@@ -4317,7 +4329,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4475,7 +4487,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4553,7 +4565,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -4569,7 +4580,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5617,7 +5628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -6060,7 +6071,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6588,7 +6599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
@@ -6738,7 +6749,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trunk/study/auswertung/auswertung arbeitgeber_teilnehmer 17.xlsx
+++ b/trunk/study/auswertung/auswertung arbeitgeber_teilnehmer 17.xlsx
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Kinderbetreuung</t>
-  </si>
-  <si>
-    <t>flexible Arbeitszeit</t>
   </si>
   <si>
     <t>Reisen</t>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>Fürsprechende Haltung</t>
+  </si>
+  <si>
+    <t>Flexible Arbeitszeit</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
                   <c:v>Kinderbetreuung</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>flexible Arbeitszeit</c:v>
+                  <c:v>Flexible Arbeitszeit</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Reisen</c:v>
@@ -445,7 +445,7 @@
                   <c:v>47.058823529411768</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.411764705882355</c:v>
+                  <c:v>23.529411764705884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -456,12 +456,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="57134080"/>
-        <c:axId val="57135872"/>
+        <c:axId val="56937472"/>
+        <c:axId val="56939264"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="57134080"/>
+        <c:axId val="56937472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -478,14 +478,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57135872"/>
+        <c:crossAx val="56939264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57135872"/>
+        <c:axId val="56939264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,7 +503,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57134080"/>
+        <c:crossAx val="56937472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -526,7 +526,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -631,7 +631,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -697,11 +697,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="65588608"/>
-        <c:axId val="65598592"/>
+        <c:axId val="58510720"/>
+        <c:axId val="58520704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65588608"/>
+        <c:axId val="58510720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,14 +718,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65598592"/>
+        <c:crossAx val="58520704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65598592"/>
+        <c:axId val="58520704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -733,7 +733,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65588608"/>
+        <c:crossAx val="58510720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -742,7 +742,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -984,11 +984,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="65750912"/>
-        <c:axId val="65752448"/>
+        <c:axId val="58673024"/>
+        <c:axId val="58674560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65750912"/>
+        <c:axId val="58673024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1005,14 +1005,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65752448"/>
+        <c:crossAx val="58674560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65752448"/>
+        <c:axId val="58674560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,7 +1020,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65750912"/>
+        <c:crossAx val="58673024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1043,7 +1043,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1202,7 +1202,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1361,7 +1361,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1520,7 +1520,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1679,7 +1679,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2032,11 +2032,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="65988480"/>
-        <c:axId val="65990016"/>
+        <c:axId val="59959168"/>
+        <c:axId val="59960704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65988480"/>
+        <c:axId val="59959168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2053,14 +2053,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65990016"/>
+        <c:crossAx val="59960704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65990016"/>
+        <c:axId val="59960704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2068,7 +2068,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65988480"/>
+        <c:crossAx val="59959168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2091,7 +2091,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2190,7 +2190,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2283,7 +2283,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2355,7 +2355,7 @@
                   <c:v>Kinderbetreuung</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>flexible Arbeitszeit</c:v>
+                  <c:v>Flexible Arbeitszeit</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Reisen</c:v>
@@ -2403,7 +2403,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2466,7 +2466,7 @@
                   <c:v>Kinderbetreuung</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>flexible Arbeitszeit</c:v>
+                  <c:v>Flexible Arbeitszeit</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Reisen</c:v>
@@ -2524,11 +2524,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="57529856"/>
-        <c:axId val="57531392"/>
+        <c:axId val="57595392"/>
+        <c:axId val="57596928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57529856"/>
+        <c:axId val="57595392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2545,14 +2545,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57531392"/>
+        <c:crossAx val="57596928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57531392"/>
+        <c:axId val="57596928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2570,7 +2570,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57529856"/>
+        <c:crossAx val="57595392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2593,7 +2593,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2692,7 +2692,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2785,7 +2785,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2878,7 +2878,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2986,11 +2986,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="66303488"/>
-        <c:axId val="66305024"/>
+        <c:axId val="60274176"/>
+        <c:axId val="60275712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66303488"/>
+        <c:axId val="60274176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3007,14 +3007,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66305024"/>
+        <c:crossAx val="60275712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66305024"/>
+        <c:axId val="60275712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3023,7 +3023,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66303488"/>
+        <c:crossAx val="60274176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3045,7 +3045,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3620,11 +3620,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="58105856"/>
-        <c:axId val="58107392"/>
+        <c:axId val="58167296"/>
+        <c:axId val="58168832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="58105856"/>
+        <c:axId val="58167296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3641,14 +3641,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58107392"/>
+        <c:crossAx val="58168832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58107392"/>
+        <c:axId val="58168832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3657,14 +3657,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58105856"/>
+        <c:crossAx val="58167296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3680,7 +3679,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3710,7 +3709,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -3827,7 +3825,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3843,7 +3840,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3870,7 +3867,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -3987,7 +3983,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -4003,7 +3998,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4161,7 +4156,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4202,7 +4197,7 @@
           <c:x val="7.8279053875661975E-2"/>
           <c:y val="0.43253818463531757"/>
           <c:w val="0.83160757272204877"/>
-          <c:h val="0.48032377632185363"/>
+          <c:h val="0.4803237763218538"/>
         </c:manualLayout>
       </c:layout>
       <c:pie3DChart>
@@ -4329,7 +4324,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4487,7 +4482,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4580,7 +4575,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5628,8 +5623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5642,13 +5637,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5773,7 +5768,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B10">
         <v>13</v>
@@ -5788,7 +5783,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -5803,17 +5798,17 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>12</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>29.411764705882355</v>
+        <v>23.529411764705884</v>
       </c>
     </row>
   </sheetData>
@@ -5838,7 +5833,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1">
         <v>7</v>
@@ -5846,7 +5841,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1">
         <v>6</v>
@@ -5854,7 +5849,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -5862,7 +5857,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -5889,7 +5884,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -5897,7 +5892,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1">
         <v>12</v>
@@ -5905,7 +5900,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -5932,7 +5927,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1">
         <v>7</v>
@@ -5940,7 +5935,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1">
         <v>9</v>
@@ -5948,7 +5943,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -5972,7 +5967,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -6081,19 +6076,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6138,7 +6133,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6158,7 +6153,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6198,7 +6193,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -6258,7 +6253,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -6278,7 +6273,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -6298,7 +6293,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -6322,12 +6317,12 @@
     <row r="15" spans="1:6">
       <c r="B15" s="2"/>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -6351,12 +6346,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -6372,7 +6367,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>14</v>
@@ -6399,7 +6394,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -6407,7 +6402,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -6415,7 +6410,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -6423,7 +6418,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -6431,7 +6426,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6463,24 +6458,24 @@
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="6">
         <v>2</v>
@@ -6499,7 +6494,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
@@ -6516,7 +6511,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="6">
         <v>6</v>
@@ -6537,7 +6532,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="6">
         <v>6</v>
@@ -6558,7 +6553,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
@@ -6575,7 +6570,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>12</v>
@@ -6583,7 +6578,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -6599,8 +6594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6611,10 +6606,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6641,7 +6636,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -6652,7 +6647,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6674,7 +6669,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -6707,7 +6702,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -6718,7 +6713,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -6729,7 +6724,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6749,7 +6744,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6762,13 +6757,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
         <v>57</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6801,7 +6796,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -6815,7 +6810,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6843,7 +6838,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -6885,7 +6880,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -6899,7 +6894,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -6913,7 +6908,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6946,7 +6941,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1">
         <v>11</v>
@@ -6954,7 +6949,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -6962,7 +6957,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -6970,7 +6965,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -6997,7 +6992,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1">
         <v>7</v>
@@ -7005,7 +7000,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -7013,7 +7008,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1">
         <v>8</v>
